--- a/KINGS_WBS.xlsx
+++ b/KINGS_WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoonSE\OneDrive\바탕 화면\Project\KINGSWAY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A331C9D0-177B-4A95-9C7D-3004B68F0B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6ED455-841C-4127-A261-CACA1EA61974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="1128" windowWidth="17280" windowHeight="10044" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
+    <workbookView xWindow="1776" yWindow="1716" windowWidth="17280" windowHeight="10044" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,6 +420,10 @@
   </si>
   <si>
     <t>페이지 개수 정하고 틀 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 폴더 생성, 로켓 띄우기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,8 +431,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -664,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,9 +725,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -766,6 +769,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F753AA6-DE5C-49F2-BB7C-CC2DC561C87B}">
   <dimension ref="B2:BQ220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1104,19 +1116,19 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="2:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>45345</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1125,10 +1137,10 @@
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>45374</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1137,10 +1149,10 @@
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1149,10 +1161,10 @@
       <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>45344</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1161,10 +1173,10 @@
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1186,22 +1198,22 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:69" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="11" t="s">
@@ -1237,129 +1249,129 @@
       <c r="AH10" s="16"/>
       <c r="AI10" s="16"/>
       <c r="AJ10" s="16"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="31"/>
-      <c r="AQ10" s="31"/>
-      <c r="AR10" s="31"/>
-      <c r="AS10" s="31"/>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="31"/>
-      <c r="AV10" s="31"/>
-      <c r="AW10" s="31"/>
-      <c r="AX10" s="31"/>
-      <c r="AY10" s="31"/>
-      <c r="AZ10" s="31"/>
-      <c r="BA10" s="31"/>
-      <c r="BB10" s="31"/>
-      <c r="BC10" s="31"/>
-      <c r="BD10" s="31"/>
-      <c r="BE10" s="31"/>
-      <c r="BF10" s="31"/>
-      <c r="BG10" s="31"/>
-      <c r="BH10" s="31"/>
-      <c r="BI10" s="31"/>
-      <c r="BJ10" s="31"/>
-      <c r="BK10" s="31"/>
-      <c r="BL10" s="31"/>
-      <c r="BM10" s="31"/>
-      <c r="BN10" s="31"/>
-      <c r="BO10" s="31"/>
-      <c r="BP10" s="31"/>
-      <c r="BQ10" s="32"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="30"/>
+      <c r="AS10" s="30"/>
+      <c r="AT10" s="30"/>
+      <c r="AU10" s="30"/>
+      <c r="AV10" s="30"/>
+      <c r="AW10" s="30"/>
+      <c r="AX10" s="30"/>
+      <c r="AY10" s="30"/>
+      <c r="AZ10" s="30"/>
+      <c r="BA10" s="30"/>
+      <c r="BB10" s="30"/>
+      <c r="BC10" s="30"/>
+      <c r="BD10" s="30"/>
+      <c r="BE10" s="30"/>
+      <c r="BF10" s="30"/>
+      <c r="BG10" s="30"/>
+      <c r="BH10" s="30"/>
+      <c r="BI10" s="30"/>
+      <c r="BJ10" s="30"/>
+      <c r="BK10" s="30"/>
+      <c r="BL10" s="30"/>
+      <c r="BM10" s="30"/>
+      <c r="BN10" s="30"/>
+      <c r="BO10" s="30"/>
+      <c r="BP10" s="30"/>
+      <c r="BQ10" s="31"/>
     </row>
     <row r="11" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26" t="s">
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26" t="s">
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26"/>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="27"/>
-      <c r="AO11" s="28" t="s">
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="29"/>
-      <c r="AU11" s="29"/>
-      <c r="AV11" s="29"/>
-      <c r="AW11" s="29"/>
-      <c r="AX11" s="29"/>
-      <c r="AY11" s="29"/>
-      <c r="AZ11" s="29"/>
-      <c r="BA11" s="29"/>
-      <c r="BB11" s="30"/>
-      <c r="BC11" s="28" t="s">
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="28"/>
+      <c r="AT11" s="28"/>
+      <c r="AU11" s="28"/>
+      <c r="AV11" s="28"/>
+      <c r="AW11" s="28"/>
+      <c r="AX11" s="28"/>
+      <c r="AY11" s="28"/>
+      <c r="AZ11" s="28"/>
+      <c r="BA11" s="28"/>
+      <c r="BB11" s="29"/>
+      <c r="BC11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="BD11" s="29"/>
-      <c r="BE11" s="29"/>
-      <c r="BF11" s="29"/>
-      <c r="BG11" s="29"/>
-      <c r="BH11" s="29"/>
-      <c r="BI11" s="29"/>
-      <c r="BJ11" s="29"/>
-      <c r="BK11" s="29"/>
-      <c r="BL11" s="29"/>
-      <c r="BM11" s="29"/>
-      <c r="BN11" s="29"/>
-      <c r="BO11" s="29"/>
-      <c r="BP11" s="30"/>
+      <c r="BD11" s="28"/>
+      <c r="BE11" s="28"/>
+      <c r="BF11" s="28"/>
+      <c r="BG11" s="28"/>
+      <c r="BH11" s="28"/>
+      <c r="BI11" s="28"/>
+      <c r="BJ11" s="28"/>
+      <c r="BK11" s="28"/>
+      <c r="BL11" s="28"/>
+      <c r="BM11" s="28"/>
+      <c r="BN11" s="28"/>
+      <c r="BO11" s="28"/>
+      <c r="BP11" s="29"/>
       <c r="BQ11" s="17"/>
     </row>
     <row r="12" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="11" t="s">
         <v>14</v>
       </c>
@@ -1561,10 +1573,10 @@
       <c r="F13" s="6">
         <v>1</v>
       </c>
-      <c r="G13" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="I13" s="19"/>
+      <c r="G13" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="2:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="9"/>
@@ -1580,14 +1592,15 @@
       <c r="F14" s="6">
         <v>1</v>
       </c>
-      <c r="G14" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="G14" s="33">
+        <v>1</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="18"/>
     </row>
     <row r="15" spans="2:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="9"/>
@@ -1598,12 +1611,15 @@
         <v>98</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="O15" s="18"/>
       <c r="BM15" s="1"/>
       <c r="BN15" s="1"/>
       <c r="BO15" s="1"/>
@@ -1615,63 +1631,74 @@
       <c r="D16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="18"/>
+      <c r="E16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="P16" s="18"/>
       <c r="BM16" s="1"/>
       <c r="BN16" s="1"/>
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
     </row>
     <row r="17" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="18"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="18"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="18"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="18"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
@@ -1679,7 +1706,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="18"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
@@ -1687,7 +1714,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="18"/>
+      <c r="G23" s="33"/>
     </row>
     <row r="24" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
@@ -1695,7 +1722,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="18"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
@@ -1703,7 +1730,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="18"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
@@ -1711,7 +1738,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="18"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
@@ -1719,7 +1746,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="18"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
@@ -1727,7 +1754,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="18"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
@@ -1735,7 +1762,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="18"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="5"/>
@@ -1743,7 +1770,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="18"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
@@ -1751,7 +1778,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="18"/>
+      <c r="G31" s="33"/>
     </row>
     <row r="32" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
@@ -1759,7 +1786,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="18"/>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
@@ -1767,7 +1794,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="18"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="5"/>
@@ -1775,7 +1802,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="18"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="5"/>
@@ -1783,7 +1810,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="18"/>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="5"/>
@@ -1791,7 +1818,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="18"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="5"/>
@@ -1799,7 +1826,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="18"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="5"/>
@@ -1807,7 +1834,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="18"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="5"/>
@@ -1815,7 +1842,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="18"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="5"/>
@@ -1823,7 +1850,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="18"/>
+      <c r="G40" s="33"/>
     </row>
     <row r="41" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="5"/>
@@ -1831,7 +1858,7 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="18"/>
+      <c r="G41" s="33"/>
     </row>
     <row r="42" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="5"/>
@@ -1839,7 +1866,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="18"/>
+      <c r="G42" s="33"/>
     </row>
     <row r="43" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="5"/>
@@ -1847,7 +1874,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="18"/>
+      <c r="G43" s="33"/>
     </row>
     <row r="44" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="5"/>
@@ -1855,7 +1882,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="18"/>
+      <c r="G44" s="33"/>
     </row>
     <row r="45" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="8"/>
@@ -1863,7 +1890,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="18"/>
+      <c r="G45" s="33"/>
     </row>
     <row r="46" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="8"/>
@@ -1871,7 +1898,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="18"/>
+      <c r="G46" s="33"/>
     </row>
     <row r="47" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="8"/>
@@ -1879,7 +1906,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="18"/>
+      <c r="G47" s="33"/>
     </row>
     <row r="48" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="8"/>
@@ -1887,7 +1914,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="18"/>
+      <c r="G48" s="33"/>
     </row>
     <row r="49" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="8"/>
@@ -1895,7 +1922,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="18"/>
+      <c r="G49" s="33"/>
     </row>
     <row r="50" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="8"/>
@@ -1903,7 +1930,7 @@
       <c r="D50" s="8"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="18"/>
+      <c r="G50" s="33"/>
     </row>
     <row r="51" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="8"/>
@@ -1911,7 +1938,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="18"/>
+      <c r="G51" s="33"/>
     </row>
     <row r="52" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="7"/>
@@ -1919,7 +1946,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="20"/>
+      <c r="G52" s="35"/>
     </row>
     <row r="53" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="7"/>
@@ -1927,7 +1954,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="20"/>
+      <c r="G53" s="35"/>
     </row>
     <row r="54" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="7"/>
@@ -1935,7 +1962,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="20"/>
+      <c r="G54" s="35"/>
     </row>
     <row r="55" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="7"/>
@@ -1943,7 +1970,7 @@
       <c r="D55" s="7"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="20"/>
+      <c r="G55" s="35"/>
     </row>
     <row r="56" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="7"/>
@@ -1951,7 +1978,7 @@
       <c r="D56" s="7"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="20"/>
+      <c r="G56" s="35"/>
     </row>
     <row r="57" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="7"/>
@@ -1959,7 +1986,7 @@
       <c r="D57" s="7"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="20"/>
+      <c r="G57" s="35"/>
     </row>
     <row r="58" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="7"/>
@@ -1967,7 +1994,7 @@
       <c r="D58" s="7"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="20"/>
+      <c r="G58" s="35"/>
     </row>
     <row r="59" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="7"/>
@@ -1975,7 +2002,7 @@
       <c r="D59" s="7"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="20"/>
+      <c r="G59" s="35"/>
     </row>
     <row r="60" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7"/>
@@ -1983,7 +2010,7 @@
       <c r="D60" s="7"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="20"/>
+      <c r="G60" s="35"/>
     </row>
     <row r="61" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="7"/>
@@ -1991,7 +2018,7 @@
       <c r="D61" s="7"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="20"/>
+      <c r="G61" s="35"/>
     </row>
     <row r="62" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="7"/>
@@ -1999,7 +2026,7 @@
       <c r="D62" s="7"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="20"/>
+      <c r="G62" s="35"/>
     </row>
     <row r="63" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="7"/>
@@ -2007,7 +2034,7 @@
       <c r="D63" s="7"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="20"/>
+      <c r="G63" s="35"/>
     </row>
     <row r="64" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="7"/>
@@ -2015,7 +2042,7 @@
       <c r="D64" s="7"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="20"/>
+      <c r="G64" s="35"/>
     </row>
     <row r="65" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="7"/>
@@ -2023,7 +2050,7 @@
       <c r="D65" s="7"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="20"/>
+      <c r="G65" s="35"/>
     </row>
     <row r="66" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="7"/>
@@ -2031,7 +2058,7 @@
       <c r="D66" s="7"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="20"/>
+      <c r="G66" s="35"/>
     </row>
     <row r="67" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="7"/>
@@ -2039,7 +2066,7 @@
       <c r="D67" s="7"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="20"/>
+      <c r="G67" s="35"/>
     </row>
     <row r="68" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="7"/>
@@ -2047,7 +2074,7 @@
       <c r="D68" s="7"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="20"/>
+      <c r="G68" s="35"/>
     </row>
     <row r="69" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="7"/>
@@ -2055,7 +2082,7 @@
       <c r="D69" s="7"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="20"/>
+      <c r="G69" s="35"/>
     </row>
     <row r="70" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="7"/>
@@ -2063,7 +2090,7 @@
       <c r="D70" s="7"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="20"/>
+      <c r="G70" s="35"/>
     </row>
     <row r="71" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="7"/>
@@ -2071,7 +2098,7 @@
       <c r="D71" s="7"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="20"/>
+      <c r="G71" s="35"/>
     </row>
     <row r="72" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="7"/>
@@ -2079,7 +2106,7 @@
       <c r="D72" s="7"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="20"/>
+      <c r="G72" s="35"/>
     </row>
     <row r="73" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="7"/>
@@ -2087,7 +2114,7 @@
       <c r="D73" s="7"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="20"/>
+      <c r="G73" s="35"/>
     </row>
     <row r="74" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="7"/>
@@ -2095,7 +2122,7 @@
       <c r="D74" s="7"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
-      <c r="G74" s="20"/>
+      <c r="G74" s="35"/>
     </row>
     <row r="75" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="7"/>
@@ -2103,7 +2130,7 @@
       <c r="D75" s="7"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="20"/>
+      <c r="G75" s="35"/>
     </row>
     <row r="76" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="7"/>
@@ -2111,7 +2138,7 @@
       <c r="D76" s="7"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="20"/>
+      <c r="G76" s="35"/>
     </row>
     <row r="77" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="7"/>
@@ -2119,7 +2146,7 @@
       <c r="D77" s="7"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="20"/>
+      <c r="G77" s="35"/>
     </row>
     <row r="78" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="7"/>
@@ -2127,7 +2154,7 @@
       <c r="D78" s="7"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="20"/>
+      <c r="G78" s="35"/>
     </row>
     <row r="79" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="7"/>
@@ -2135,7 +2162,7 @@
       <c r="D79" s="7"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="20"/>
+      <c r="G79" s="35"/>
     </row>
     <row r="80" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="7"/>
@@ -2143,7 +2170,7 @@
       <c r="D80" s="7"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="20"/>
+      <c r="G80" s="35"/>
     </row>
     <row r="81" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="7"/>
@@ -2151,7 +2178,7 @@
       <c r="D81" s="7"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="20"/>
+      <c r="G81" s="35"/>
     </row>
     <row r="82" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="7"/>
@@ -2159,7 +2186,7 @@
       <c r="D82" s="7"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="20"/>
+      <c r="G82" s="35"/>
     </row>
     <row r="83" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="7"/>
@@ -2167,7 +2194,7 @@
       <c r="D83" s="7"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="20"/>
+      <c r="G83" s="35"/>
     </row>
     <row r="84" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="7"/>
@@ -2175,7 +2202,7 @@
       <c r="D84" s="7"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="20"/>
+      <c r="G84" s="35"/>
     </row>
     <row r="85" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="7"/>
@@ -2183,7 +2210,7 @@
       <c r="D85" s="7"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="20"/>
+      <c r="G85" s="35"/>
     </row>
     <row r="86" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="7"/>
@@ -2191,7 +2218,7 @@
       <c r="D86" s="7"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="20"/>
+      <c r="G86" s="35"/>
     </row>
     <row r="87" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="7"/>
@@ -2199,7 +2226,7 @@
       <c r="D87" s="7"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="20"/>
+      <c r="G87" s="35"/>
     </row>
     <row r="88" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="7"/>
@@ -2207,7 +2234,7 @@
       <c r="D88" s="7"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="20"/>
+      <c r="G88" s="35"/>
     </row>
     <row r="89" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="7"/>
@@ -2215,7 +2242,7 @@
       <c r="D89" s="7"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="20"/>
+      <c r="G89" s="35"/>
     </row>
     <row r="90" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="7"/>
@@ -2223,7 +2250,7 @@
       <c r="D90" s="7"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="20"/>
+      <c r="G90" s="35"/>
     </row>
     <row r="91" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="7"/>
@@ -2231,7 +2258,7 @@
       <c r="D91" s="7"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="20"/>
+      <c r="G91" s="35"/>
     </row>
     <row r="92" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="7"/>
@@ -2239,7 +2266,7 @@
       <c r="D92" s="7"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="20"/>
+      <c r="G92" s="35"/>
     </row>
     <row r="93" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="7"/>
@@ -2247,7 +2274,7 @@
       <c r="D93" s="7"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="20"/>
+      <c r="G93" s="35"/>
     </row>
     <row r="94" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="7"/>
@@ -2255,7 +2282,7 @@
       <c r="D94" s="7"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="20"/>
+      <c r="G94" s="35"/>
     </row>
     <row r="95" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="7"/>
@@ -2263,7 +2290,7 @@
       <c r="D95" s="7"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="20"/>
+      <c r="G95" s="35"/>
     </row>
     <row r="96" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="7"/>
@@ -2271,7 +2298,7 @@
       <c r="D96" s="7"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="20"/>
+      <c r="G96" s="35"/>
     </row>
     <row r="97" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="7"/>
@@ -2279,7 +2306,7 @@
       <c r="D97" s="7"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="20"/>
+      <c r="G97" s="35"/>
     </row>
     <row r="98" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="7"/>
@@ -2287,7 +2314,7 @@
       <c r="D98" s="7"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="20"/>
+      <c r="G98" s="35"/>
     </row>
     <row r="99" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B99" s="7"/>
@@ -2295,7 +2322,7 @@
       <c r="D99" s="7"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="20"/>
+      <c r="G99" s="35"/>
     </row>
     <row r="100" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="7"/>
@@ -2303,7 +2330,7 @@
       <c r="D100" s="7"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="20"/>
+      <c r="G100" s="35"/>
     </row>
     <row r="101" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="7"/>
@@ -2311,7 +2338,7 @@
       <c r="D101" s="7"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="20"/>
+      <c r="G101" s="35"/>
     </row>
     <row r="102" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="7"/>
@@ -2319,7 +2346,7 @@
       <c r="D102" s="7"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="20"/>
+      <c r="G102" s="35"/>
     </row>
     <row r="103" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="7"/>
@@ -2327,7 +2354,7 @@
       <c r="D103" s="7"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="20"/>
+      <c r="G103" s="35"/>
     </row>
     <row r="104" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="7"/>
@@ -2335,7 +2362,7 @@
       <c r="D104" s="7"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="20"/>
+      <c r="G104" s="35"/>
     </row>
     <row r="105" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="7"/>
@@ -2343,7 +2370,7 @@
       <c r="D105" s="7"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="20"/>
+      <c r="G105" s="35"/>
     </row>
     <row r="106" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="7"/>
@@ -2351,7 +2378,7 @@
       <c r="D106" s="7"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
-      <c r="G106" s="20"/>
+      <c r="G106" s="35"/>
     </row>
     <row r="107" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B107" s="7"/>
@@ -2359,7 +2386,7 @@
       <c r="D107" s="7"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="20"/>
+      <c r="G107" s="35"/>
     </row>
     <row r="108" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="7"/>
@@ -2367,7 +2394,7 @@
       <c r="D108" s="7"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="20"/>
+      <c r="G108" s="35"/>
     </row>
     <row r="109" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B109" s="7"/>
@@ -2375,7 +2402,7 @@
       <c r="D109" s="7"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="20"/>
+      <c r="G109" s="35"/>
     </row>
     <row r="110" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B110" s="7"/>
@@ -2383,7 +2410,7 @@
       <c r="D110" s="7"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
-      <c r="G110" s="20"/>
+      <c r="G110" s="35"/>
     </row>
     <row r="111" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B111" s="7"/>
@@ -2391,7 +2418,7 @@
       <c r="D111" s="7"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="20"/>
+      <c r="G111" s="35"/>
     </row>
     <row r="112" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B112" s="7"/>
@@ -2399,7 +2426,7 @@
       <c r="D112" s="7"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="20"/>
+      <c r="G112" s="35"/>
     </row>
     <row r="113" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B113" s="7"/>
@@ -2407,7 +2434,7 @@
       <c r="D113" s="7"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="20"/>
+      <c r="G113" s="35"/>
     </row>
     <row r="114" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B114" s="7"/>
@@ -2415,7 +2442,7 @@
       <c r="D114" s="7"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="20"/>
+      <c r="G114" s="35"/>
     </row>
     <row r="115" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B115" s="7"/>
@@ -2423,7 +2450,7 @@
       <c r="D115" s="7"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="20"/>
+      <c r="G115" s="35"/>
     </row>
     <row r="116" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B116" s="7"/>
@@ -2431,7 +2458,7 @@
       <c r="D116" s="7"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="20"/>
+      <c r="G116" s="35"/>
     </row>
     <row r="117" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B117" s="7"/>
@@ -2439,7 +2466,7 @@
       <c r="D117" s="7"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="20"/>
+      <c r="G117" s="35"/>
     </row>
     <row r="118" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B118" s="7"/>
@@ -2447,7 +2474,7 @@
       <c r="D118" s="7"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="20"/>
+      <c r="G118" s="35"/>
     </row>
     <row r="119" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B119" s="7"/>
@@ -2455,7 +2482,7 @@
       <c r="D119" s="7"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="20"/>
+      <c r="G119" s="34"/>
     </row>
     <row r="120" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B120" s="7"/>
@@ -2463,7 +2490,7 @@
       <c r="D120" s="7"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="20"/>
+      <c r="G120" s="34"/>
     </row>
     <row r="121" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B121" s="7"/>
@@ -2471,7 +2498,7 @@
       <c r="D121" s="7"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="20"/>
+      <c r="G121" s="34"/>
     </row>
     <row r="122" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B122" s="7"/>
@@ -2479,7 +2506,7 @@
       <c r="D122" s="7"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="20"/>
+      <c r="G122" s="34"/>
     </row>
     <row r="123" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B123" s="7"/>
@@ -2487,7 +2514,7 @@
       <c r="D123" s="7"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="20"/>
+      <c r="G123" s="34"/>
     </row>
     <row r="124" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B124" s="7"/>
@@ -2495,7 +2522,7 @@
       <c r="D124" s="7"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="20"/>
+      <c r="G124" s="34"/>
     </row>
     <row r="125" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B125" s="7"/>
@@ -2503,7 +2530,7 @@
       <c r="D125" s="7"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="20"/>
+      <c r="G125" s="34"/>
     </row>
     <row r="126" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B126" s="7"/>
@@ -2511,7 +2538,7 @@
       <c r="D126" s="7"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="20"/>
+      <c r="G126" s="34"/>
     </row>
     <row r="127" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B127" s="7"/>
@@ -2519,7 +2546,7 @@
       <c r="D127" s="7"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="20"/>
+      <c r="G127" s="34"/>
     </row>
     <row r="128" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B128" s="7"/>
@@ -2527,7 +2554,7 @@
       <c r="D128" s="7"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="20"/>
+      <c r="G128" s="34"/>
     </row>
     <row r="129" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B129" s="7"/>
@@ -2535,7 +2562,7 @@
       <c r="D129" s="7"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="20"/>
+      <c r="G129" s="34"/>
     </row>
     <row r="130" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B130" s="7"/>
@@ -2543,7 +2570,7 @@
       <c r="D130" s="7"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
-      <c r="G130" s="20"/>
+      <c r="G130" s="34"/>
     </row>
     <row r="131" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B131" s="7"/>
@@ -2551,7 +2578,7 @@
       <c r="D131" s="7"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
-      <c r="G131" s="20"/>
+      <c r="G131" s="34"/>
     </row>
     <row r="132" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B132" s="7"/>
@@ -2559,7 +2586,7 @@
       <c r="D132" s="7"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
-      <c r="G132" s="20"/>
+      <c r="G132" s="34"/>
     </row>
     <row r="133" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B133" s="7"/>
@@ -2567,7 +2594,7 @@
       <c r="D133" s="7"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
-      <c r="G133" s="20"/>
+      <c r="G133" s="34"/>
     </row>
     <row r="134" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B134" s="7"/>
@@ -2575,7 +2602,7 @@
       <c r="D134" s="7"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
-      <c r="G134" s="20"/>
+      <c r="G134" s="35"/>
     </row>
     <row r="135" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B135" s="7"/>
@@ -2583,7 +2610,7 @@
       <c r="D135" s="7"/>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
-      <c r="G135" s="20"/>
+      <c r="G135" s="35"/>
     </row>
     <row r="136" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B136" s="7"/>
@@ -2591,7 +2618,7 @@
       <c r="D136" s="7"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
-      <c r="G136" s="20"/>
+      <c r="G136" s="19"/>
     </row>
     <row r="137" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B137" s="7"/>
@@ -2599,7 +2626,7 @@
       <c r="D137" s="7"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="20"/>
+      <c r="G137" s="19"/>
     </row>
     <row r="138" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B138" s="7"/>
@@ -2607,7 +2634,7 @@
       <c r="D138" s="7"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="20"/>
+      <c r="G138" s="19"/>
     </row>
     <row r="139" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B139" s="7"/>
@@ -2615,7 +2642,7 @@
       <c r="D139" s="7"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
-      <c r="G139" s="20"/>
+      <c r="G139" s="19"/>
     </row>
     <row r="140" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B140" s="7"/>
@@ -2623,7 +2650,7 @@
       <c r="D140" s="7"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
-      <c r="G140" s="20"/>
+      <c r="G140" s="19"/>
     </row>
     <row r="141" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B141" s="7"/>

--- a/KINGS_WBS.xlsx
+++ b/KINGS_WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoonSE\OneDrive\바탕 화면\Project\KINGSWAY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6ED455-841C-4127-A261-CACA1EA61974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C5E681-8BB5-4B98-AB11-F2E2B3CA6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1716" windowWidth="17280" windowHeight="10044" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
+    <workbookView xWindow="3876" yWindow="1464" windowWidth="17280" windowHeight="10044" xr2:uid="{4F68EF3D-DEC7-4864-A746-04C7E98A59CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,22 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹페이지 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어떤 기능이 있는지 리스트업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,18 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>백엔드개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 테이블 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미 데이터 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>페이지 틀 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,11 +391,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>페이지 개수 정하고 틀 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>웹 폴더 생성, 로켓 띄우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스트리 구축 및 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백엔드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 페이지 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴더 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view, templates, url 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,8 +437,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -670,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,49 +738,52 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F753AA6-DE5C-49F2-BB7C-CC2DC561C87B}">
   <dimension ref="B2:BQ220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1116,19 +1123,19 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="2:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="35">
         <v>45345</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1137,10 +1144,10 @@
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="35">
         <v>45374</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1149,10 +1156,10 @@
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1161,10 +1168,10 @@
       <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="35">
         <v>45344</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1173,10 +1180,10 @@
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="23"/>
+      <c r="C7" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="32"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1198,22 +1205,22 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:69" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="33" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="11" t="s">
@@ -1249,311 +1256,311 @@
       <c r="AH10" s="16"/>
       <c r="AI10" s="16"/>
       <c r="AJ10" s="16"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="30"/>
-      <c r="AM10" s="30"/>
-      <c r="AN10" s="30"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="30"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="30"/>
-      <c r="AT10" s="30"/>
-      <c r="AU10" s="30"/>
-      <c r="AV10" s="30"/>
-      <c r="AW10" s="30"/>
-      <c r="AX10" s="30"/>
-      <c r="AY10" s="30"/>
-      <c r="AZ10" s="30"/>
-      <c r="BA10" s="30"/>
-      <c r="BB10" s="30"/>
-      <c r="BC10" s="30"/>
-      <c r="BD10" s="30"/>
-      <c r="BE10" s="30"/>
-      <c r="BF10" s="30"/>
-      <c r="BG10" s="30"/>
-      <c r="BH10" s="30"/>
-      <c r="BI10" s="30"/>
-      <c r="BJ10" s="30"/>
-      <c r="BK10" s="30"/>
-      <c r="BL10" s="30"/>
-      <c r="BM10" s="30"/>
-      <c r="BN10" s="30"/>
-      <c r="BO10" s="30"/>
-      <c r="BP10" s="30"/>
-      <c r="BQ10" s="31"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="29"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="29"/>
+      <c r="AU10" s="29"/>
+      <c r="AV10" s="29"/>
+      <c r="AW10" s="29"/>
+      <c r="AX10" s="29"/>
+      <c r="AY10" s="29"/>
+      <c r="AZ10" s="29"/>
+      <c r="BA10" s="29"/>
+      <c r="BB10" s="29"/>
+      <c r="BC10" s="29"/>
+      <c r="BD10" s="29"/>
+      <c r="BE10" s="29"/>
+      <c r="BF10" s="29"/>
+      <c r="BG10" s="29"/>
+      <c r="BH10" s="29"/>
+      <c r="BI10" s="29"/>
+      <c r="BJ10" s="29"/>
+      <c r="BK10" s="29"/>
+      <c r="BL10" s="29"/>
+      <c r="BM10" s="29"/>
+      <c r="BN10" s="29"/>
+      <c r="BO10" s="29"/>
+      <c r="BP10" s="29"/>
+      <c r="BQ10" s="30"/>
     </row>
     <row r="11" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25" t="s">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="27" t="s">
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AP11" s="28"/>
-      <c r="AQ11" s="28"/>
-      <c r="AR11" s="28"/>
-      <c r="AS11" s="28"/>
-      <c r="AT11" s="28"/>
-      <c r="AU11" s="28"/>
-      <c r="AV11" s="28"/>
-      <c r="AW11" s="28"/>
-      <c r="AX11" s="28"/>
-      <c r="AY11" s="28"/>
-      <c r="AZ11" s="28"/>
-      <c r="BA11" s="28"/>
-      <c r="BB11" s="29"/>
-      <c r="BC11" s="27" t="s">
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="27"/>
+      <c r="AR11" s="27"/>
+      <c r="AS11" s="27"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="27"/>
+      <c r="AV11" s="27"/>
+      <c r="AW11" s="27"/>
+      <c r="AX11" s="27"/>
+      <c r="AY11" s="27"/>
+      <c r="AZ11" s="27"/>
+      <c r="BA11" s="27"/>
+      <c r="BB11" s="28"/>
+      <c r="BC11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="BD11" s="28"/>
-      <c r="BE11" s="28"/>
-      <c r="BF11" s="28"/>
-      <c r="BG11" s="28"/>
-      <c r="BH11" s="28"/>
-      <c r="BI11" s="28"/>
-      <c r="BJ11" s="28"/>
-      <c r="BK11" s="28"/>
-      <c r="BL11" s="28"/>
-      <c r="BM11" s="28"/>
-      <c r="BN11" s="28"/>
-      <c r="BO11" s="28"/>
-      <c r="BP11" s="29"/>
+      <c r="BD11" s="27"/>
+      <c r="BE11" s="27"/>
+      <c r="BF11" s="27"/>
+      <c r="BG11" s="27"/>
+      <c r="BH11" s="27"/>
+      <c r="BI11" s="27"/>
+      <c r="BJ11" s="27"/>
+      <c r="BK11" s="27"/>
+      <c r="BL11" s="27"/>
+      <c r="BM11" s="27"/>
+      <c r="BN11" s="27"/>
+      <c r="BO11" s="27"/>
+      <c r="BP11" s="28"/>
       <c r="BQ11" s="17"/>
     </row>
     <row r="12" spans="2:69" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="Q12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="R12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="T12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="V12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="X12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="Z12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="AB12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="AD12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="AF12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="AG12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="AH12" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="U12" s="12" t="s">
+      <c r="AI12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="V12" s="12" t="s">
+      <c r="AJ12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="W12" s="12" t="s">
+      <c r="AK12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="X12" s="12" t="s">
+      <c r="AL12" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="Y12" s="12" t="s">
+      <c r="AM12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z12" s="12" t="s">
+      <c r="AN12" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AA12" s="12" t="s">
+      <c r="AO12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AB12" s="12" t="s">
+      <c r="AP12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AC12" s="12" t="s">
+      <c r="AQ12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" s="12" t="s">
+      <c r="AR12" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AE12" s="12" t="s">
+      <c r="AS12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AF12" s="12" t="s">
+      <c r="AT12" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="AG12" s="12" t="s">
+      <c r="AU12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AH12" s="12" t="s">
+      <c r="AV12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AI12" s="12" t="s">
+      <c r="AW12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AJ12" s="12" t="s">
+      <c r="AX12" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AK12" s="12" t="s">
+      <c r="AY12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AL12" s="13" t="s">
+      <c r="AZ12" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AM12" s="12" t="s">
+      <c r="BA12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AN12" s="12" t="s">
+      <c r="BB12" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AO12" s="12" t="s">
+      <c r="BC12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AP12" s="12" t="s">
+      <c r="BD12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AQ12" s="12" t="s">
+      <c r="BE12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AR12" s="12" t="s">
+      <c r="BF12" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="AS12" s="12" t="s">
+      <c r="BG12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AT12" s="12" t="s">
+      <c r="BH12" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AU12" s="12" t="s">
+      <c r="BI12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AV12" s="12" t="s">
+      <c r="BJ12" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AW12" s="12" t="s">
+      <c r="BK12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AX12" s="12" t="s">
+      <c r="BL12" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AY12" s="12" t="s">
+      <c r="BM12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AZ12" s="12" t="s">
+      <c r="BN12" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="BA12" s="12" t="s">
+      <c r="BO12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BB12" s="12" t="s">
+      <c r="BP12" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="BC12" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="BD12" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF12" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG12" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH12" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="BI12" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="BJ12" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK12" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL12" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="BM12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN12" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="BP12" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="BQ12" s="14"/>
     </row>
@@ -1562,18 +1569,18 @@
         <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F13" s="6">
         <v>1</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="21">
         <v>0.5</v>
       </c>
       <c r="I13" s="18"/>
@@ -1581,18 +1588,18 @@
     <row r="14" spans="2:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="9"/>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F14" s="6">
         <v>1</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="21">
         <v>1</v>
       </c>
       <c r="J14" s="18"/>
@@ -1605,18 +1612,18 @@
     <row r="15" spans="2:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F15" s="6">
         <v>1</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="21">
         <v>0.5</v>
       </c>
       <c r="O15" s="18"/>
@@ -1629,15 +1636,15 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="21">
         <v>0.5</v>
       </c>
       <c r="P16" s="18"/>
@@ -1646,978 +1653,996 @@
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
     </row>
-    <row r="17" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
+    <row r="17" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P17" s="18"/>
+    </row>
+    <row r="18" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="18"/>
+    </row>
+    <row r="19" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="D19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F20" s="6"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F21" s="6"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F22" s="6"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F23" s="6"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F24" s="6"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F25" s="6"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="33"/>
-    </row>
-    <row r="27" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F26" s="6"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F27" s="6"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="6"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F29" s="6"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F30" s="6"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F31" s="6"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="33"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="21"/>
     </row>
     <row r="33" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="33"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="21"/>
     </row>
     <row r="34" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="33"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="33"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="33"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="33"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="33"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="33"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="33"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="33"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="33"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="33"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="33"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="33"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="33"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="33"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="21"/>
     </row>
     <row r="48" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="33"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="21"/>
     </row>
     <row r="49" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="33"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="33"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="21"/>
     </row>
     <row r="51" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="33"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="21"/>
     </row>
     <row r="52" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="35"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="23"/>
     </row>
     <row r="53" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="35"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="23"/>
     </row>
     <row r="54" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="35"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="23"/>
     </row>
     <row r="55" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="35"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="35"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="23"/>
     </row>
     <row r="57" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="35"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="23"/>
     </row>
     <row r="58" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="35"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="23"/>
     </row>
     <row r="59" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="35"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="23"/>
     </row>
     <row r="60" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="35"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="23"/>
     </row>
     <row r="61" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="35"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="23"/>
     </row>
     <row r="62" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="35"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="23"/>
     </row>
     <row r="63" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="35"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="23"/>
     </row>
     <row r="64" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="35"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="23"/>
     </row>
     <row r="65" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="35"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="23"/>
     </row>
     <row r="66" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="35"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="23"/>
     </row>
     <row r="67" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="35"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="23"/>
     </row>
     <row r="68" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="35"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="23"/>
     </row>
     <row r="69" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="35"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="23"/>
     </row>
     <row r="70" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="35"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="23"/>
     </row>
     <row r="71" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="35"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="23"/>
     </row>
     <row r="72" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="35"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="23"/>
     </row>
     <row r="73" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="35"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="23"/>
     </row>
     <row r="74" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="35"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="23"/>
     </row>
     <row r="75" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="35"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="23"/>
     </row>
     <row r="76" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="35"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="23"/>
     </row>
     <row r="77" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="35"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="23"/>
     </row>
     <row r="78" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="35"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="23"/>
     </row>
     <row r="79" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="35"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="23"/>
     </row>
     <row r="80" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="35"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="23"/>
     </row>
     <row r="81" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="35"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="23"/>
     </row>
     <row r="82" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="35"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="23"/>
     </row>
     <row r="83" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="35"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="23"/>
     </row>
     <row r="84" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="35"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="23"/>
     </row>
     <row r="85" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="35"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="23"/>
     </row>
     <row r="86" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="35"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="23"/>
     </row>
     <row r="87" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="35"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="23"/>
     </row>
     <row r="88" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="35"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="23"/>
     </row>
     <row r="89" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="35"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="23"/>
     </row>
     <row r="90" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="35"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="23"/>
     </row>
     <row r="91" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="35"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="23"/>
     </row>
     <row r="92" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="35"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="23"/>
     </row>
     <row r="93" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="35"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="23"/>
     </row>
     <row r="94" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="35"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="23"/>
     </row>
     <row r="95" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="35"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="23"/>
     </row>
     <row r="96" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="35"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="23"/>
     </row>
     <row r="97" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="35"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="23"/>
     </row>
     <row r="98" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="35"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="23"/>
     </row>
     <row r="99" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="35"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="23"/>
     </row>
     <row r="100" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="35"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="23"/>
     </row>
     <row r="101" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="35"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="23"/>
     </row>
     <row r="102" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="35"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="23"/>
     </row>
     <row r="103" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="35"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="23"/>
     </row>
     <row r="104" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="35"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="23"/>
     </row>
     <row r="105" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="35"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="23"/>
     </row>
     <row r="106" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="35"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="23"/>
     </row>
     <row r="107" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="35"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="23"/>
     </row>
     <row r="108" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="35"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="23"/>
     </row>
     <row r="109" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="35"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="23"/>
     </row>
     <row r="110" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="35"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="23"/>
     </row>
     <row r="111" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="35"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="23"/>
     </row>
     <row r="112" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="35"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="23"/>
     </row>
     <row r="113" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="35"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="23"/>
     </row>
     <row r="114" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="35"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="23"/>
     </row>
     <row r="115" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="35"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="23"/>
     </row>
     <row r="116" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="35"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="23"/>
     </row>
     <row r="117" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="35"/>
+      <c r="F117" s="36"/>
+      <c r="G117" s="23"/>
     </row>
     <row r="118" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="35"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="23"/>
     </row>
     <row r="119" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="34"/>
+      <c r="F119" s="36"/>
+      <c r="G119" s="22"/>
     </row>
     <row r="120" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="34"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="22"/>
     </row>
     <row r="121" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="34"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="22"/>
     </row>
     <row r="122" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="34"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="22"/>
     </row>
     <row r="123" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="34"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="22"/>
     </row>
     <row r="124" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="34"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="22"/>
     </row>
     <row r="125" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="34"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="22"/>
     </row>
     <row r="126" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="34"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="22"/>
     </row>
     <row r="127" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="34"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="22"/>
     </row>
     <row r="128" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="34"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="22"/>
     </row>
     <row r="129" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="34"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="22"/>
     </row>
     <row r="130" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="34"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="22"/>
     </row>
     <row r="131" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="34"/>
+      <c r="F131" s="36"/>
+      <c r="G131" s="22"/>
     </row>
     <row r="132" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="34"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="22"/>
     </row>
     <row r="133" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="34"/>
+      <c r="F133" s="36"/>
+      <c r="G133" s="22"/>
     </row>
     <row r="134" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="35"/>
+      <c r="F134" s="36"/>
+      <c r="G134" s="23"/>
     </row>
     <row r="135" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="35"/>
+      <c r="F135" s="36"/>
+      <c r="G135" s="23"/>
     </row>
     <row r="136" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
+      <c r="F136" s="36"/>
       <c r="G136" s="19"/>
     </row>
     <row r="137" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2625,7 +2650,7 @@
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
+      <c r="F137" s="36"/>
       <c r="G137" s="19"/>
     </row>
     <row r="138" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2633,7 +2658,7 @@
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
+      <c r="F138" s="36"/>
       <c r="G138" s="19"/>
     </row>
     <row r="139" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2641,7 +2666,7 @@
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
+      <c r="F139" s="36"/>
       <c r="G139" s="19"/>
     </row>
     <row r="140" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2649,7 +2674,7 @@
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
+      <c r="F140" s="36"/>
       <c r="G140" s="19"/>
     </row>
     <row r="141" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2657,7 +2682,7 @@
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
+      <c r="F141" s="36"/>
       <c r="G141" s="9"/>
     </row>
     <row r="142" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2665,7 +2690,7 @@
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
+      <c r="F142" s="36"/>
       <c r="G142" s="9"/>
     </row>
     <row r="143" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2673,7 +2698,7 @@
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
+      <c r="F143" s="36"/>
       <c r="G143" s="9"/>
     </row>
     <row r="144" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2681,7 +2706,7 @@
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
+      <c r="F144" s="36"/>
       <c r="G144" s="9"/>
     </row>
     <row r="145" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2689,7 +2714,7 @@
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
+      <c r="F145" s="36"/>
       <c r="G145" s="9"/>
     </row>
     <row r="146" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2697,7 +2722,7 @@
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
+      <c r="F146" s="36"/>
       <c r="G146" s="9"/>
     </row>
     <row r="147" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2705,7 +2730,7 @@
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
+      <c r="F147" s="36"/>
       <c r="G147" s="9"/>
     </row>
     <row r="148" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2713,7 +2738,7 @@
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
+      <c r="F148" s="36"/>
       <c r="G148" s="9"/>
     </row>
     <row r="149" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2721,7 +2746,7 @@
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
+      <c r="F149" s="36"/>
       <c r="G149" s="9"/>
     </row>
     <row r="150" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2729,7 +2754,7 @@
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
+      <c r="F150" s="36"/>
       <c r="G150" s="9"/>
     </row>
     <row r="151" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2737,7 +2762,7 @@
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
+      <c r="F151" s="36"/>
       <c r="G151" s="9"/>
     </row>
     <row r="152" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2745,7 +2770,7 @@
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
+      <c r="F152" s="36"/>
       <c r="G152" s="9"/>
     </row>
     <row r="153" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2753,7 +2778,7 @@
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
+      <c r="F153" s="36"/>
       <c r="G153" s="9"/>
     </row>
     <row r="154" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2761,7 +2786,7 @@
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
+      <c r="F154" s="36"/>
       <c r="G154" s="9"/>
     </row>
     <row r="155" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2769,7 +2794,7 @@
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
+      <c r="F155" s="36"/>
       <c r="G155" s="9"/>
     </row>
     <row r="156" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2777,7 +2802,7 @@
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
+      <c r="F156" s="36"/>
       <c r="G156" s="9"/>
     </row>
     <row r="157" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2785,7 +2810,7 @@
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
+      <c r="F157" s="36"/>
       <c r="G157" s="9"/>
     </row>
     <row r="158" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2793,7 +2818,7 @@
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
+      <c r="F158" s="36"/>
       <c r="G158" s="9"/>
     </row>
     <row r="159" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2801,7 +2826,7 @@
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
+      <c r="F159" s="36"/>
       <c r="G159" s="9"/>
     </row>
     <row r="160" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2809,7 +2834,7 @@
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
+      <c r="F160" s="36"/>
       <c r="G160" s="9"/>
     </row>
     <row r="161" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2817,7 +2842,7 @@
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
+      <c r="F161" s="36"/>
       <c r="G161" s="9"/>
     </row>
     <row r="162" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2825,7 +2850,7 @@
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="9"/>
-      <c r="F162" s="9"/>
+      <c r="F162" s="36"/>
       <c r="G162" s="9"/>
     </row>
     <row r="163" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2833,7 +2858,7 @@
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
+      <c r="F163" s="36"/>
       <c r="G163" s="9"/>
     </row>
     <row r="164" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2841,7 +2866,7 @@
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="9"/>
-      <c r="F164" s="9"/>
+      <c r="F164" s="36"/>
       <c r="G164" s="9"/>
     </row>
     <row r="165" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2849,7 +2874,7 @@
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
+      <c r="F165" s="36"/>
       <c r="G165" s="9"/>
     </row>
     <row r="166" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2857,7 +2882,7 @@
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="9"/>
-      <c r="F166" s="9"/>
+      <c r="F166" s="36"/>
       <c r="G166" s="9"/>
     </row>
     <row r="167" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2865,7 +2890,7 @@
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
+      <c r="F167" s="36"/>
       <c r="G167" s="9"/>
     </row>
     <row r="168" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2873,7 +2898,7 @@
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="9"/>
-      <c r="F168" s="9"/>
+      <c r="F168" s="36"/>
       <c r="G168" s="9"/>
     </row>
     <row r="169" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2881,7 +2906,7 @@
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
+      <c r="F169" s="36"/>
       <c r="G169" s="9"/>
     </row>
     <row r="170" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2889,7 +2914,7 @@
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
+      <c r="F170" s="36"/>
       <c r="G170" s="9"/>
     </row>
     <row r="171" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2897,7 +2922,7 @@
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
+      <c r="F171" s="36"/>
       <c r="G171" s="9"/>
     </row>
     <row r="172" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2905,7 +2930,7 @@
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="9"/>
-      <c r="F172" s="9"/>
+      <c r="F172" s="36"/>
       <c r="G172" s="9"/>
     </row>
     <row r="173" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2913,7 +2938,7 @@
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="9"/>
-      <c r="F173" s="9"/>
+      <c r="F173" s="36"/>
       <c r="G173" s="9"/>
     </row>
     <row r="174" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2921,7 +2946,7 @@
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
+      <c r="F174" s="36"/>
       <c r="G174" s="9"/>
     </row>
     <row r="175" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2929,7 +2954,7 @@
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="9"/>
-      <c r="F175" s="9"/>
+      <c r="F175" s="36"/>
       <c r="G175" s="9"/>
     </row>
     <row r="176" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -3294,12 +3319,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AA11:AN11"/>
-    <mergeCell ref="AO11:BB11"/>
-    <mergeCell ref="BC11:BP11"/>
-    <mergeCell ref="AK10:BQ10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:Z11"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="B10:B12"/>
@@ -3307,11 +3331,12 @@
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AA11:AN11"/>
+    <mergeCell ref="AO11:BB11"/>
+    <mergeCell ref="BC11:BP11"/>
+    <mergeCell ref="AK10:BQ10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:Z11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
